--- a/biology/Botanique/Quercus_wislizeni/Quercus_wislizeni.xlsx
+++ b/biology/Botanique/Quercus_wislizeni/Quercus_wislizeni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus wislizeni est une espèce d'arbres de la famille des Fagaceae. 
 Ce chêne a des feuilles persistantes. Son port est très variable, il est souvent arbustif. On le rencontre dans de vastes zones en Californie aux États-Unis. Il est également endémique du nord de la Basse-Californie. Il se trouve généralement au pied des collines, et est plus abondant en basse altitude de la Sierra Nevada, mais il est aussi répandu dans chaînes côtières du Pacifique et dans les San Gabriel Mountains.
